--- a/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\powerwashsimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD3787-46A0-4CAF-A335-FFA8CE496BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CD5025-6202-4B01-B1E3-9D577253F4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24240" yWindow="900" windowWidth="21600" windowHeight="13830" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="5910" yWindow="900" windowWidth="21825" windowHeight="14190" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="210">
   <si>
     <t>Description</t>
   </si>
@@ -603,6 +603,69 @@
   </si>
   <si>
     <t>Complete the Wonderland Entrance job</t>
+  </si>
+  <si>
+    <t>Wallace and Grommet DLC</t>
+  </si>
+  <si>
+    <t>Home Sweet Home</t>
+  </si>
+  <si>
+    <t>Complete the Wallace and Gromit's Dining Room and Kitchen job</t>
+  </si>
+  <si>
+    <t>Right house proud</t>
+  </si>
+  <si>
+    <t>Complete the Wallace and Gromit's House job</t>
+  </si>
+  <si>
+    <t>All knitted up!</t>
+  </si>
+  <si>
+    <t>Complete the Knit-O-Matic job</t>
+  </si>
+  <si>
+    <t>Now we’re motoring!</t>
+  </si>
+  <si>
+    <t>Complete the Wallace and Gromit's Vehicles job</t>
+  </si>
+  <si>
+    <t>We have touchdown!</t>
+  </si>
+  <si>
+    <t>Complete the Moon Rocket job</t>
+  </si>
+  <si>
+    <t>All aboard!</t>
+  </si>
+  <si>
+    <t>In the Wallace and Gromit's Dining Room and Kitchen job, activate the Toy Train</t>
+  </si>
+  <si>
+    <t>Pond possession!</t>
+  </si>
+  <si>
+    <t>In the Wallace and Gromit's House job, roll the football under the pond</t>
+  </si>
+  <si>
+    <t>Baaath time!</t>
+  </si>
+  <si>
+    <t>In the Knit-O-Matic job, activate the sheep bath</t>
+  </si>
+  <si>
+    <t>Squeaky-clean strides!</t>
+  </si>
+  <si>
+    <t>In the Wallace and Gromit's Vehicles job, clean the Techno Trousers first</t>
+  </si>
+  <si>
+    <t>The Art of Cleaning</t>
+  </si>
+  <si>
+    <t>In the Moon Rocket job, clean the paintings inside the rocket first</t>
   </si>
 </sst>
 </file>
@@ -660,13 +723,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1077,7 @@
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>185</v>
       </c>
@@ -1086,8 +1150,20 @@
       <c r="X1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1236,17 @@
       <c r="X2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1234,8 +1319,17 @@
       <c r="X3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1308,8 +1402,17 @@
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1382,8 +1485,17 @@
       <c r="X5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1456,8 +1568,17 @@
       <c r="X6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1530,8 +1651,17 @@
       <c r="X7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1604,8 +1734,17 @@
       <c r="X8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1678,8 +1817,17 @@
       <c r="X9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1752,8 +1900,17 @@
       <c r="X10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1826,8 +1983,17 @@
       <c r="X11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1841,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1855,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
@@ -1869,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -1883,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>

--- a/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CD5025-6202-4B01-B1E3-9D577253F4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF9BDF-D74D-43B3-94D0-C1D90E300AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="900" windowWidth="21825" windowHeight="14190" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -723,14 +723,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,13 +1067,15 @@
   <dimension ref="A1:AB41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
@@ -1236,13 +1237,16 @@
       <c r="X2">
         <v>1</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>190</v>
       </c>
       <c r="Z2" t="s">
         <v>191</v>
       </c>
       <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
         <v>1</v>
       </c>
     </row>
@@ -1319,13 +1323,16 @@
       <c r="X3">
         <v>1</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>192</v>
       </c>
       <c r="Z3" t="s">
         <v>193</v>
       </c>
       <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
         <v>1</v>
       </c>
     </row>
@@ -1402,13 +1409,16 @@
       <c r="X4">
         <v>1</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>194</v>
       </c>
       <c r="Z4" t="s">
         <v>195</v>
       </c>
       <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
         <v>1</v>
       </c>
     </row>
@@ -1485,7 +1495,7 @@
       <c r="X5">
         <v>1</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" t="s">
         <v>196</v>
       </c>
       <c r="Z5" t="s">
@@ -1568,7 +1578,7 @@
       <c r="X6">
         <v>1</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" t="s">
         <v>198</v>
       </c>
       <c r="Z6" t="s">
@@ -1651,13 +1661,16 @@
       <c r="X7">
         <v>1</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="3" t="s">
         <v>200</v>
       </c>
       <c r="Z7" t="s">
         <v>201</v>
       </c>
       <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
         <v>1</v>
       </c>
     </row>
@@ -1734,13 +1747,16 @@
       <c r="X8">
         <v>1</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="3" t="s">
         <v>202</v>
       </c>
       <c r="Z8" t="s">
         <v>203</v>
       </c>
       <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
         <v>1</v>
       </c>
     </row>
@@ -1817,13 +1833,16 @@
       <c r="X9">
         <v>1</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="3" t="s">
         <v>204</v>
       </c>
       <c r="Z9" t="s">
         <v>205</v>
       </c>
       <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
         <v>1</v>
       </c>
     </row>
@@ -1900,7 +1919,7 @@
       <c r="X10">
         <v>1</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" t="s">
         <v>206</v>
       </c>
       <c r="Z10" t="s">
@@ -1983,7 +2002,7 @@
       <c r="X11">
         <v>1</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" t="s">
         <v>208</v>
       </c>
       <c r="Z11" t="s">

--- a/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF9BDF-D74D-43B3-94D0-C1D90E300AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837B6754-5ACE-47AD-86F9-75735AE323ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="1395" yWindow="1020" windowWidth="21825" windowHeight="14190" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
+++ b/public/games/powerwashsimulator/powerwashsimulator_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\powerwashsimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837B6754-5ACE-47AD-86F9-75735AE323ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12D291-0606-4C05-BDF9-7FCAB494667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1020" windowWidth="21825" windowHeight="14190" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
+    <workbookView xWindow="1890" yWindow="1095" windowWidth="21825" windowHeight="14190" xr2:uid="{30C4C3A8-F402-46FC-A1A0-0B0F8647869F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEB57F3-4A37-4B35-911F-04B3CFC91EFD}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
